--- a/doc/tabla cifrado 4677.xlsx
+++ b/doc/tabla cifrado 4677.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rotetamauricio\Dropbox\Curso Diseño Web\javascript\clima\estacionclimatica\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauricio\Dropbox\Curso Diseño Web\javascript\clima\estacionclimatica\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Table 5" sheetId="5" r:id="rId5"/>
     <sheet name="Table 6" sheetId="6" r:id="rId6"/>
     <sheet name="Hoja1" sheetId="7" r:id="rId7"/>
+    <sheet name="json" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="125">
   <si>
     <r>
       <rPr>
@@ -1399,6 +1400,18 @@
   </si>
   <si>
     <t>');</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>iconDia</t>
+  </si>
+  <si>
+    <t>iconNoche</t>
   </si>
 </sst>
 </file>
@@ -1702,11 +1715,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="16"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1726,6 +1784,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="16"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1735,38 +1799,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="16"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="16"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -1869,30 +1906,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2326,10 +2339,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.35" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="22.35" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2337,14 +2350,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" ht="22.35" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -2352,80 +2365,80 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.85" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="65">
+      <c r="B6" s="27"/>
+      <c r="C6" s="9">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="65">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="65">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="9">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:6" ht="36.950000000000003" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="65">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="9">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="65">
+      <c r="B10" s="27"/>
+      <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="65">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="9">
         <v>5</v>
       </c>
       <c r="D11" s="22" t="s">
@@ -2434,52 +2447,52 @@
       <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="65">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="9">
         <v>6</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="38.1" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="65">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="9">
         <v>7</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="65">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="9">
         <v>8</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="65">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="9">
         <v>9</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="6">
         <v>10</v>
       </c>
@@ -2489,30 +2502,30 @@
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" ht="38.1" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="6">
         <v>11</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="38.1" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="6">
         <v>12</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="37.35" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="6">
         <v>13</v>
       </c>
@@ -2523,11 +2536,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A16:B19"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:B9"/>
+    <mergeCell ref="E6:E9"/>
     <mergeCell ref="A10:B15"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
@@ -2535,11 +2548,11 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:B9"/>
-    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A16:B19"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2564,8 +2577,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="4">
         <v>14</v>
       </c>
@@ -2575,190 +2588,190 @@
       <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="4">
         <v>15</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="36.950000000000003" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="4">
         <v>16</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4">
         <v>17</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="4">
         <v>18</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="36.950000000000003" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="6">
         <v>19</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" ht="22.35" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="6">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="6">
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="32"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="6">
         <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="32"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:6" ht="36.950000000000003" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="6">
         <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="1:6" ht="36.950000000000003" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="6">
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:6" ht="36.950000000000003" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="6">
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:6" ht="36.950000000000003" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="6">
         <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="6">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="35"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="6">
         <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5" ht="37.35" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="6">
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="36"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="C19" s="67"/>
+      <c r="C19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2802,272 +2815,272 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="5">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="4">
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="5">
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:6" ht="36.950000000000003" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="6">
         <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="6">
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="6">
         <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="6">
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="6">
         <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="6">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="6">
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="36"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="1:6" ht="22.35" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
     </row>
     <row r="15" spans="1:6" ht="74.849999999999994" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="6">
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="6">
         <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="1:5" ht="36.950000000000003" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="6">
         <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="36.950000000000003" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="6">
         <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5" ht="37.35" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="6">
         <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="6">
         <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="19"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="6">
         <v>46</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="6">
         <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:5" ht="36.950000000000003" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="6">
         <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:5" ht="36.950000000000003" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="6">
         <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="19"/>
+      <c r="E24" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="A9:B12"/>
+    <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:B18"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="A19:B24"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E21:E24"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="A9:B12"/>
-    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3097,14 +3110,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="22.35" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3112,145 +3125,145 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="5">
         <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="53" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="38.85" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="6">
         <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="1:6" ht="36.200000000000003" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="6">
         <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="6">
         <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="56"/>
     </row>
     <row r="9" spans="1:6" ht="36.950000000000003" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="6">
         <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="57" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="6">
         <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="50"/>
+      <c r="E10" s="58"/>
     </row>
     <row r="11" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="6">
         <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="6">
         <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="6">
         <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="6">
         <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="36"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="C15" s="67"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="67"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="67"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="67"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="67"/>
+      <c r="C19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3290,198 +3303,198 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="6">
         <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="53" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="38.85" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="6">
         <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:6" ht="36.200000000000003" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="6">
         <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="6">
         <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="48"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" spans="1:6" ht="36.950000000000003" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="6">
         <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="57" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="6">
         <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="50"/>
+      <c r="E8" s="58"/>
     </row>
     <row r="9" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="6">
         <v>66</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="6">
         <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="6">
         <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="6">
         <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="36"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="1:6" ht="22.35" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="6">
         <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="53" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="37.700000000000003" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="6">
         <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="46"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:5" ht="37.35" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="6">
         <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="36.950000000000003" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="6">
         <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="48"/>
+      <c r="E18" s="56"/>
     </row>
     <row r="19" spans="1:5" ht="36.950000000000003" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="6">
         <v>74</v>
       </c>
@@ -3493,8 +3506,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="37.35" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="4">
         <v>75</v>
       </c>
@@ -3506,63 +3519,63 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="4">
         <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="34"/>
+      <c r="E21" s="42"/>
     </row>
     <row r="22" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="4">
         <v>77</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="35"/>
+      <c r="E22" s="43"/>
     </row>
     <row r="23" spans="1:5" ht="36.950000000000003" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="5">
         <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="35"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="1:5" ht="36.950000000000003" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="4">
         <v>79</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="36"/>
+      <c r="E24" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B12"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E12"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:B19"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="A20:B24"/>
     <mergeCell ref="E21:E24"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B12"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3587,14 +3600,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="22.35" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -3603,228 +3616,228 @@
     </row>
     <row r="3" spans="1:6" ht="12" customHeight="1"/>
     <row r="4" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="6">
         <v>80</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="6">
         <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="6">
         <v>82</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:6" ht="36.950000000000003" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="6">
         <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="6">
         <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="6">
         <v>85</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:6" ht="36.950000000000003" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="6">
         <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="6">
         <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="6">
         <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="6">
         <v>89</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="36"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:6" ht="37.35" customHeight="1">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="6">
         <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="54"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="6">
         <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="6">
         <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="35"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="6">
         <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5" ht="36.6" customHeight="1">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="6">
         <v>94</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="35"/>
+      <c r="E18" s="43"/>
     </row>
     <row r="19" spans="1:5" ht="37.35" customHeight="1">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="60"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="6">
         <v>95</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="35"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="6">
         <v>96</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="35"/>
+      <c r="E20" s="43"/>
     </row>
     <row r="21" spans="1:5" ht="37.35" customHeight="1">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="6">
         <v>97</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="6">
         <v>98</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="35"/>
+      <c r="E22" s="43"/>
     </row>
     <row r="23" spans="1:5" ht="37.35" customHeight="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="6">
         <v>99</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="36"/>
+      <c r="E23" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3845,31 +3858,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G100"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" style="67"/>
+    <col min="2" max="3" width="12" style="10"/>
     <col min="4" max="4" width="139.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="65">
+      <c r="A1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="9">
         <v>0</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G1" t="str">
@@ -3878,19 +3891,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="65">
+      <c r="A2" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G2" t="str">
@@ -3899,19 +3912,19 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="65">
+      <c r="A3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G3" t="str">
@@ -3920,19 +3933,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="65">
+      <c r="A4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G4" t="str">
@@ -3941,19 +3954,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="65">
+      <c r="A5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="71" t="s">
+      <c r="C5" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G5" t="str">
@@ -3962,19 +3975,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="65">
+      <c r="A6" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="9">
         <v>5</v>
       </c>
-      <c r="C6" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="72" t="s">
+      <c r="C6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G6" t="str">
@@ -3983,19 +3996,19 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="65">
+      <c r="A7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="9">
         <v>6</v>
       </c>
-      <c r="C7" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="71" t="s">
+      <c r="C7" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G7" t="str">
@@ -4004,19 +4017,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="A8" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="65">
+      <c r="A8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="9">
         <v>7</v>
       </c>
-      <c r="C8" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="71" t="s">
+      <c r="C8" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G8" t="str">
@@ -4025,19 +4038,19 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="A9" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="65">
+      <c r="A9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="9">
         <v>8</v>
       </c>
-      <c r="C9" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="71" t="s">
+      <c r="C9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G9" t="str">
@@ -4046,19 +4059,19 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15">
-      <c r="A10" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="65">
+      <c r="A10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="9">
         <v>9</v>
       </c>
-      <c r="C10" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="71" t="s">
+      <c r="C10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G10" t="str">
@@ -4067,19 +4080,19 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="72" t="s">
+      <c r="C11" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G11" t="str">
@@ -4088,19 +4101,19 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="71" t="s">
+      <c r="C12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G12" t="str">
@@ -4109,19 +4122,19 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="71" t="s">
+      <c r="C13" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G13" t="str">
@@ -4130,19 +4143,19 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="72" t="s">
+      <c r="C14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G14" t="str">
@@ -4151,19 +4164,19 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="72" t="s">
+      <c r="C15" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G15" t="str">
@@ -4172,19 +4185,19 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="71" t="s">
+      <c r="C16" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G16" t="str">
@@ -4193,19 +4206,19 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B17" s="6">
         <v>16</v>
       </c>
-      <c r="C17" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="71" t="s">
+      <c r="C17" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G17" t="str">
@@ -4214,19 +4227,19 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="71" t="s">
+      <c r="C18" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G18" t="str">
@@ -4235,19 +4248,19 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B19" s="6">
         <v>18</v>
       </c>
-      <c r="C19" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="71" t="s">
+      <c r="C19" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G19" t="str">
@@ -4256,19 +4269,19 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="71" t="s">
+      <c r="C20" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G20" t="str">
@@ -4277,19 +4290,19 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="6">
         <v>20</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G21" t="str">
@@ -4298,19 +4311,19 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="70" t="s">
+      <c r="E22" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G22" t="str">
@@ -4319,19 +4332,19 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B23" s="6">
         <v>22</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G23" t="str">
@@ -4340,19 +4353,19 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B24" s="6">
         <v>23</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G24" t="str">
@@ -4361,19 +4374,19 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B25" s="6">
         <v>24</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G25" t="str">
@@ -4382,19 +4395,19 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="6">
         <v>25</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G26" t="str">
@@ -4403,19 +4416,19 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B27" s="6">
         <v>26</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G27" t="str">
@@ -4424,19 +4437,19 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B28" s="6">
         <v>27</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="E28" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G28" t="str">
@@ -4445,19 +4458,19 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B29" s="6">
         <v>28</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G29" t="str">
@@ -4466,19 +4479,19 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="70" t="s">
+      <c r="E30" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G30" t="str">
@@ -4487,19 +4500,19 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G31" t="str">
@@ -4508,19 +4521,19 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B32" s="6">
         <v>31</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="70" t="s">
+      <c r="E32" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G32" t="str">
@@ -4529,19 +4542,19 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B33" s="6">
         <v>32</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G33" t="str">
@@ -4550,19 +4563,19 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G34" t="str">
@@ -4571,19 +4584,19 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B35" s="6">
         <v>34</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G35" t="str">
@@ -4592,19 +4605,19 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G36" t="str">
@@ -4613,19 +4626,19 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B37" s="6">
         <v>36</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G37" t="str">
@@ -4634,19 +4647,19 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="70" t="s">
+      <c r="E38" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G38" t="str">
@@ -4655,19 +4668,19 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="15">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B39" s="6">
         <v>38</v>
       </c>
-      <c r="C39" s="69" t="s">
+      <c r="C39" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="70" t="s">
+      <c r="E39" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G39" t="str">
@@ -4676,19 +4689,19 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="70" t="s">
+      <c r="E40" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G40" t="str">
@@ -4697,19 +4710,19 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="24">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B41" s="6">
         <v>40</v>
       </c>
-      <c r="C41" s="69" t="s">
+      <c r="C41" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G41" t="str">
@@ -4718,19 +4731,19 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B42" s="6">
         <v>41</v>
       </c>
-      <c r="C42" s="69" t="s">
+      <c r="C42" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="70" t="s">
+      <c r="E42" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G42" t="str">
@@ -4739,19 +4752,19 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B43" s="6">
         <v>42</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G43" t="str">
@@ -4760,19 +4773,19 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="15">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B44" s="6">
         <v>43</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="70" t="s">
+      <c r="E44" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G44" t="str">
@@ -4781,19 +4794,19 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B45" s="6">
         <v>44</v>
       </c>
-      <c r="C45" s="69" t="s">
+      <c r="C45" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="70" t="s">
+      <c r="E45" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G45" t="str">
@@ -4802,19 +4815,19 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="15">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B46" s="6">
         <v>45</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="70" t="s">
+      <c r="E46" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G46" t="str">
@@ -4823,19 +4836,19 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="15">
-      <c r="A47" s="68" t="s">
+      <c r="A47" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B47" s="6">
         <v>46</v>
       </c>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G47" t="str">
@@ -4844,19 +4857,19 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="15">
-      <c r="A48" s="68" t="s">
+      <c r="A48" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B48" s="6">
         <v>47</v>
       </c>
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="70" t="s">
+      <c r="E48" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G48" t="str">
@@ -4865,19 +4878,19 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="15">
-      <c r="A49" s="68" t="s">
+      <c r="A49" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B49" s="6">
         <v>48</v>
       </c>
-      <c r="C49" s="69" t="s">
+      <c r="C49" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="70" t="s">
+      <c r="E49" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G49" t="str">
@@ -4886,19 +4899,19 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15">
-      <c r="A50" s="68" t="s">
+      <c r="A50" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B50" s="6">
         <v>49</v>
       </c>
-      <c r="C50" s="69" t="s">
+      <c r="C50" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="70" t="s">
+      <c r="E50" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G50" t="str">
@@ -4907,19 +4920,19 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="15">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B51" s="6">
         <v>50</v>
       </c>
-      <c r="C51" s="69" t="s">
+      <c r="C51" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="70" t="s">
+      <c r="E51" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G51" t="str">
@@ -4928,19 +4941,19 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="15">
-      <c r="A52" s="68" t="s">
+      <c r="A52" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B52" s="6">
         <v>51</v>
       </c>
-      <c r="C52" s="69" t="s">
+      <c r="C52" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="70" t="s">
+      <c r="E52" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G52" t="str">
@@ -4949,19 +4962,19 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="15">
-      <c r="A53" s="68" t="s">
+      <c r="A53" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B53" s="6">
         <v>52</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C53" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="70" t="s">
+      <c r="E53" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G53" t="str">
@@ -4970,19 +4983,19 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="15">
-      <c r="A54" s="68" t="s">
+      <c r="A54" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B54" s="6">
         <v>53</v>
       </c>
-      <c r="C54" s="69" t="s">
+      <c r="C54" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="70" t="s">
+      <c r="E54" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G54" t="str">
@@ -4991,19 +5004,19 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15">
-      <c r="A55" s="68" t="s">
+      <c r="A55" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B55" s="6">
         <v>54</v>
       </c>
-      <c r="C55" s="69" t="s">
+      <c r="C55" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="70" t="s">
+      <c r="E55" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G55" t="str">
@@ -5012,19 +5025,19 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15">
-      <c r="A56" s="68" t="s">
+      <c r="A56" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B56" s="6">
         <v>55</v>
       </c>
-      <c r="C56" s="69" t="s">
+      <c r="C56" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="70" t="s">
+      <c r="E56" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G56" t="str">
@@ -5033,19 +5046,19 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15">
-      <c r="A57" s="68" t="s">
+      <c r="A57" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B57" s="6">
         <v>56</v>
       </c>
-      <c r="C57" s="69" t="s">
+      <c r="C57" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="70" t="s">
+      <c r="E57" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G57" t="str">
@@ -5054,19 +5067,19 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="15">
-      <c r="A58" s="68" t="s">
+      <c r="A58" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B58" s="6">
         <v>57</v>
       </c>
-      <c r="C58" s="69" t="s">
+      <c r="C58" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E58" s="70" t="s">
+      <c r="E58" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G58" t="str">
@@ -5075,19 +5088,19 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15">
-      <c r="A59" s="68" t="s">
+      <c r="A59" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B59" s="6">
         <v>58</v>
       </c>
-      <c r="C59" s="69" t="s">
+      <c r="C59" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E59" s="70" t="s">
+      <c r="E59" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G59" t="str">
@@ -5096,19 +5109,19 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15">
-      <c r="A60" s="68" t="s">
+      <c r="A60" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B60" s="6">
         <v>59</v>
       </c>
-      <c r="C60" s="69" t="s">
+      <c r="C60" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="70" t="s">
+      <c r="E60" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G60" t="str">
@@ -5117,19 +5130,19 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="15">
-      <c r="A61" s="68" t="s">
+      <c r="A61" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B61" s="6">
         <v>60</v>
       </c>
-      <c r="C61" s="69" t="s">
+      <c r="C61" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="70" t="s">
+      <c r="E61" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G61" t="str">
@@ -5138,19 +5151,19 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="15">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B62" s="6">
         <v>61</v>
       </c>
-      <c r="C62" s="69" t="s">
+      <c r="C62" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="70" t="s">
+      <c r="E62" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G62" t="str">
@@ -5159,19 +5172,19 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="15">
-      <c r="A63" s="68" t="s">
+      <c r="A63" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B63" s="6">
         <v>62</v>
       </c>
-      <c r="C63" s="69" t="s">
+      <c r="C63" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E63" s="70" t="s">
+      <c r="E63" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G63" t="str">
@@ -5180,19 +5193,19 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15">
-      <c r="A64" s="68" t="s">
+      <c r="A64" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B64" s="6">
         <v>63</v>
       </c>
-      <c r="C64" s="69" t="s">
+      <c r="C64" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="70" t="s">
+      <c r="E64" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G64" t="str">
@@ -5201,19 +5214,19 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15">
-      <c r="A65" s="68" t="s">
+      <c r="A65" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B65" s="6">
         <v>64</v>
       </c>
-      <c r="C65" s="69" t="s">
+      <c r="C65" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E65" s="70" t="s">
+      <c r="E65" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G65" t="str">
@@ -5222,19 +5235,19 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15">
-      <c r="A66" s="68" t="s">
+      <c r="A66" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B66" s="6">
         <v>65</v>
       </c>
-      <c r="C66" s="69" t="s">
+      <c r="C66" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E66" s="70" t="s">
+      <c r="E66" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G66" t="str">
@@ -5243,19 +5256,19 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="15">
-      <c r="A67" s="68" t="s">
+      <c r="A67" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B67" s="6">
         <v>66</v>
       </c>
-      <c r="C67" s="69" t="s">
+      <c r="C67" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E67" s="70" t="s">
+      <c r="E67" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G67" t="str">
@@ -5264,19 +5277,19 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="15">
-      <c r="A68" s="68" t="s">
+      <c r="A68" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B68" s="6">
         <v>67</v>
       </c>
-      <c r="C68" s="69" t="s">
+      <c r="C68" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E68" s="70" t="s">
+      <c r="E68" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G68" t="str">
@@ -5285,19 +5298,19 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="15">
-      <c r="A69" s="68" t="s">
+      <c r="A69" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B69" s="6">
         <v>68</v>
       </c>
-      <c r="C69" s="69" t="s">
+      <c r="C69" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="70" t="s">
+      <c r="E69" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G69" t="str">
@@ -5306,19 +5319,19 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15">
-      <c r="A70" s="68" t="s">
+      <c r="A70" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B70" s="6">
         <v>69</v>
       </c>
-      <c r="C70" s="69" t="s">
+      <c r="C70" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="70" t="s">
+      <c r="E70" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G70" t="str">
@@ -5327,19 +5340,19 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15">
-      <c r="A71" s="68" t="s">
+      <c r="A71" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B71" s="6">
         <v>70</v>
       </c>
-      <c r="C71" s="69" t="s">
+      <c r="C71" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E71" s="70" t="s">
+      <c r="E71" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G71" t="str">
@@ -5348,19 +5361,19 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15">
-      <c r="A72" s="68" t="s">
+      <c r="A72" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B72" s="6">
         <v>71</v>
       </c>
-      <c r="C72" s="69" t="s">
+      <c r="C72" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E72" s="70" t="s">
+      <c r="E72" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G72" t="str">
@@ -5369,19 +5382,19 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15">
-      <c r="A73" s="68" t="s">
+      <c r="A73" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B73" s="6">
         <v>72</v>
       </c>
-      <c r="C73" s="69" t="s">
+      <c r="C73" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="70" t="s">
+      <c r="E73" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G73" t="str">
@@ -5390,19 +5403,19 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="15">
-      <c r="A74" s="68" t="s">
+      <c r="A74" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B74" s="6">
         <v>73</v>
       </c>
-      <c r="C74" s="69" t="s">
+      <c r="C74" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E74" s="70" t="s">
+      <c r="E74" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G74" t="str">
@@ -5411,19 +5424,19 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15">
-      <c r="A75" s="68" t="s">
+      <c r="A75" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B75" s="6">
         <v>74</v>
       </c>
-      <c r="C75" s="69" t="s">
+      <c r="C75" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E75" s="70" t="s">
+      <c r="E75" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G75" t="str">
@@ -5432,19 +5445,19 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="15">
-      <c r="A76" s="68" t="s">
+      <c r="A76" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B76" s="6">
         <v>75</v>
       </c>
-      <c r="C76" s="69" t="s">
+      <c r="C76" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E76" s="70" t="s">
+      <c r="E76" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G76" t="str">
@@ -5453,19 +5466,19 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="15">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B77" s="6">
         <v>76</v>
       </c>
-      <c r="C77" s="69" t="s">
+      <c r="C77" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E77" s="70" t="s">
+      <c r="E77" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G77" t="str">
@@ -5474,19 +5487,19 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="15">
-      <c r="A78" s="68" t="s">
+      <c r="A78" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B78" s="6">
         <v>77</v>
       </c>
-      <c r="C78" s="69" t="s">
+      <c r="C78" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E78" s="70" t="s">
+      <c r="E78" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G78" t="str">
@@ -5495,19 +5508,19 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="15">
-      <c r="A79" s="68" t="s">
+      <c r="A79" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B79" s="6">
         <v>78</v>
       </c>
-      <c r="C79" s="69" t="s">
+      <c r="C79" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E79" s="70" t="s">
+      <c r="E79" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G79" t="str">
@@ -5516,19 +5529,19 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15">
-      <c r="A80" s="68" t="s">
+      <c r="A80" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B80" s="6">
         <v>79</v>
       </c>
-      <c r="C80" s="69" t="s">
+      <c r="C80" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E80" s="70" t="s">
+      <c r="E80" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G80" t="str">
@@ -5537,19 +5550,19 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="15">
-      <c r="A81" s="68" t="s">
+      <c r="A81" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B81" s="6">
         <v>80</v>
       </c>
-      <c r="C81" s="69" t="s">
+      <c r="C81" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E81" s="70" t="s">
+      <c r="E81" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G81" t="str">
@@ -5558,19 +5571,19 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="15">
-      <c r="A82" s="68" t="s">
+      <c r="A82" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B82" s="6">
         <v>81</v>
       </c>
-      <c r="C82" s="69" t="s">
+      <c r="C82" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="70" t="s">
+      <c r="E82" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G82" t="str">
@@ -5579,19 +5592,19 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="15">
-      <c r="A83" s="68" t="s">
+      <c r="A83" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B83" s="6">
         <v>82</v>
       </c>
-      <c r="C83" s="69" t="s">
+      <c r="C83" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E83" s="70" t="s">
+      <c r="E83" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G83" t="str">
@@ -5600,19 +5613,19 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="15">
-      <c r="A84" s="68" t="s">
+      <c r="A84" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B84" s="6">
         <v>83</v>
       </c>
-      <c r="C84" s="69" t="s">
+      <c r="C84" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E84" s="70" t="s">
+      <c r="E84" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G84" t="str">
@@ -5621,19 +5634,19 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="15">
-      <c r="A85" s="68" t="s">
+      <c r="A85" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B85" s="6">
         <v>84</v>
       </c>
-      <c r="C85" s="69" t="s">
+      <c r="C85" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E85" s="70" t="s">
+      <c r="E85" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G85" t="str">
@@ -5642,19 +5655,19 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="15">
-      <c r="A86" s="68" t="s">
+      <c r="A86" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B86" s="6">
         <v>85</v>
       </c>
-      <c r="C86" s="69" t="s">
+      <c r="C86" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E86" s="70" t="s">
+      <c r="E86" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G86" t="str">
@@ -5663,19 +5676,19 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="15">
-      <c r="A87" s="68" t="s">
+      <c r="A87" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B87" s="6">
         <v>86</v>
       </c>
-      <c r="C87" s="69" t="s">
+      <c r="C87" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E87" s="70" t="s">
+      <c r="E87" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G87" t="str">
@@ -5684,19 +5697,19 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="15">
-      <c r="A88" s="68" t="s">
+      <c r="A88" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B88" s="6">
         <v>87</v>
       </c>
-      <c r="C88" s="69" t="s">
+      <c r="C88" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E88" s="70" t="s">
+      <c r="E88" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G88" t="str">
@@ -5705,19 +5718,19 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="15">
-      <c r="A89" s="68" t="s">
+      <c r="A89" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B89" s="6">
         <v>88</v>
       </c>
-      <c r="C89" s="69" t="s">
+      <c r="C89" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="70" t="s">
+      <c r="E89" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G89" t="str">
@@ -5726,19 +5739,19 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="15">
-      <c r="A90" s="68" t="s">
+      <c r="A90" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B90" s="6">
         <v>89</v>
       </c>
-      <c r="C90" s="69" t="s">
+      <c r="C90" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E90" s="70" t="s">
+      <c r="E90" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G90" t="str">
@@ -5747,19 +5760,19 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="15">
-      <c r="A91" s="68" t="s">
+      <c r="A91" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B91" s="6">
         <v>90</v>
       </c>
-      <c r="C91" s="69" t="s">
+      <c r="C91" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E91" s="70" t="s">
+      <c r="E91" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G91" t="str">
@@ -5768,19 +5781,19 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="15">
-      <c r="A92" s="68" t="s">
+      <c r="A92" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B92" s="6">
         <v>91</v>
       </c>
-      <c r="C92" s="69" t="s">
+      <c r="C92" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E92" s="70" t="s">
+      <c r="E92" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G92" t="str">
@@ -5789,19 +5802,19 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="15">
-      <c r="A93" s="68" t="s">
+      <c r="A93" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B93" s="6">
         <v>92</v>
       </c>
-      <c r="C93" s="69" t="s">
+      <c r="C93" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E93" s="70" t="s">
+      <c r="E93" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G93" t="str">
@@ -5810,19 +5823,19 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="15">
-      <c r="A94" s="68" t="s">
+      <c r="A94" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B94" s="6">
         <v>93</v>
       </c>
-      <c r="C94" s="69" t="s">
+      <c r="C94" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E94" s="70" t="s">
+      <c r="E94" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G94" t="str">
@@ -5831,19 +5844,19 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="15">
-      <c r="A95" s="68" t="s">
+      <c r="A95" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B95" s="6">
         <v>94</v>
       </c>
-      <c r="C95" s="69" t="s">
+      <c r="C95" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E95" s="70" t="s">
+      <c r="E95" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G95" t="str">
@@ -5852,19 +5865,19 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="15">
-      <c r="A96" s="68" t="s">
+      <c r="A96" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B96" s="6">
         <v>95</v>
       </c>
-      <c r="C96" s="69" t="s">
+      <c r="C96" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E96" s="70" t="s">
+      <c r="E96" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G96" t="str">
@@ -5873,19 +5886,19 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="15">
-      <c r="A97" s="68" t="s">
+      <c r="A97" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B97" s="6">
         <v>96</v>
       </c>
-      <c r="C97" s="69" t="s">
+      <c r="C97" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E97" s="70" t="s">
+      <c r="E97" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G97" t="str">
@@ -5894,19 +5907,19 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="15">
-      <c r="A98" s="68" t="s">
+      <c r="A98" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B98" s="6">
         <v>97</v>
       </c>
-      <c r="C98" s="69" t="s">
+      <c r="C98" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E98" s="70" t="s">
+      <c r="E98" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G98" t="str">
@@ -5915,19 +5928,19 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="15">
-      <c r="A99" s="68" t="s">
+      <c r="A99" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B99" s="6">
         <v>98</v>
       </c>
-      <c r="C99" s="69" t="s">
+      <c r="C99" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E99" s="70" t="s">
+      <c r="E99" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G99" t="str">
@@ -5936,24 +5949,1456 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="15">
-      <c r="A100" s="68" t="s">
+      <c r="A100" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B100" s="6">
         <v>99</v>
       </c>
-      <c r="C100" s="69" t="s">
+      <c r="C100" s="12" t="s">
         <v>119</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E100" s="70" t="s">
+      <c r="E100" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
         <v>sayings.set('99','Tormenta fuerte, con granizo, granizo blando o pedrisco en el momento de la observación.');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="192.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>61</v>
+      </c>
+      <c r="D9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>67</v>
+      </c>
+      <c r="D12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>61</v>
+      </c>
+      <c r="D13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>61</v>
+      </c>
+      <c r="D14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>72</v>
+      </c>
+      <c r="D17">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>72</v>
+      </c>
+      <c r="D18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>76</v>
+      </c>
+      <c r="D19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>76</v>
+      </c>
+      <c r="D21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>71</v>
+      </c>
+      <c r="D22">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>85</v>
+      </c>
+      <c r="D24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>85</v>
+      </c>
+      <c r="D25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>85</v>
+      </c>
+      <c r="D26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>75</v>
+      </c>
+      <c r="D27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>85</v>
+      </c>
+      <c r="D28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>85</v>
+      </c>
+      <c r="D29">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>94</v>
+      </c>
+      <c r="D30">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>76</v>
+      </c>
+      <c r="D31">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>72</v>
+      </c>
+      <c r="D32">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>72</v>
+      </c>
+      <c r="D33">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>72</v>
+      </c>
+      <c r="D34">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>73</v>
+      </c>
+      <c r="D35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A36" s="6">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>73</v>
+      </c>
+      <c r="D36">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A37" s="6">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>73</v>
+      </c>
+      <c r="D37">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A38" s="6">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A39" s="6">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A40" s="6">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>51</v>
+      </c>
+      <c r="D40">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A41" s="6">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>51</v>
+      </c>
+      <c r="D41">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A42" s="6">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>67</v>
+      </c>
+      <c r="D42">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A43" s="6">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>67</v>
+      </c>
+      <c r="D43">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A44" s="6">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44">
+        <v>67</v>
+      </c>
+      <c r="D44">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A45" s="6">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45">
+        <v>67</v>
+      </c>
+      <c r="D45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A46" s="6">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>67</v>
+      </c>
+      <c r="D46">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A47" s="6">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>67</v>
+      </c>
+      <c r="D47">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A48" s="6">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>67</v>
+      </c>
+      <c r="D48">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A49" s="6">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49">
+        <v>67</v>
+      </c>
+      <c r="D49">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A50" s="6">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50">
+        <v>67</v>
+      </c>
+      <c r="D50">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A51" s="6">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51">
+        <v>67</v>
+      </c>
+      <c r="D51">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A52" s="6">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52">
+        <v>74</v>
+      </c>
+      <c r="D52">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A53" s="6">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53">
+        <v>74</v>
+      </c>
+      <c r="D53">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A54" s="6">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54">
+        <v>74</v>
+      </c>
+      <c r="D54">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A55" s="6">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55">
+        <v>74</v>
+      </c>
+      <c r="D55">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A56" s="6">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56">
+        <v>74</v>
+      </c>
+      <c r="D56">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A57" s="6">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57">
+        <v>74</v>
+      </c>
+      <c r="D57">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A58" s="6">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58">
+        <v>74</v>
+      </c>
+      <c r="D58">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A59" s="6">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59">
+        <v>74</v>
+      </c>
+      <c r="D59">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A60" s="6">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60">
+        <v>74</v>
+      </c>
+      <c r="D60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A61" s="6">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61">
+        <v>74</v>
+      </c>
+      <c r="D61">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A62" s="6">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62">
+        <v>74</v>
+      </c>
+      <c r="D62">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A63" s="6">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63">
+        <v>74</v>
+      </c>
+      <c r="D63">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A64" s="6">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64">
+        <v>74</v>
+      </c>
+      <c r="D64">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A65" s="6">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65">
+        <v>74</v>
+      </c>
+      <c r="D65">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A66" s="6">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66">
+        <v>74</v>
+      </c>
+      <c r="D66">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A67" s="6">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67">
+        <v>74</v>
+      </c>
+      <c r="D67">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A68" s="6">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68">
+        <v>74</v>
+      </c>
+      <c r="D68">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A69" s="6">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69">
+        <v>83</v>
+      </c>
+      <c r="D69">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A70" s="6">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70">
+        <v>83</v>
+      </c>
+      <c r="D70">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A71" s="6">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71">
+        <v>83</v>
+      </c>
+      <c r="D71">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A72" s="6">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72">
+        <v>85</v>
+      </c>
+      <c r="D72">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A73" s="6">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73">
+        <v>85</v>
+      </c>
+      <c r="D73">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A74" s="6">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74">
+        <v>85</v>
+      </c>
+      <c r="D74">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A75" s="6">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75">
+        <v>85</v>
+      </c>
+      <c r="D75">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A76" s="6">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76">
+        <v>85</v>
+      </c>
+      <c r="D76">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A77" s="6">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77">
+        <v>85</v>
+      </c>
+      <c r="D77">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A78" s="6">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78">
+        <v>85</v>
+      </c>
+      <c r="D78">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A79" s="6">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79">
+        <v>85</v>
+      </c>
+      <c r="D79">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A80" s="6">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80">
+        <v>85</v>
+      </c>
+      <c r="D80">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A81" s="6">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81">
+        <v>94</v>
+      </c>
+      <c r="D81">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A82" s="6">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82">
+        <v>72</v>
+      </c>
+      <c r="D82">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A83" s="6">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83">
+        <v>72</v>
+      </c>
+      <c r="D83">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A84" s="6">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84">
+        <v>83</v>
+      </c>
+      <c r="D84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A85" s="6">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85">
+        <v>83</v>
+      </c>
+      <c r="D85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A86" s="6">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86">
+        <v>83</v>
+      </c>
+      <c r="D86">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A87" s="6">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87">
+        <v>83</v>
+      </c>
+      <c r="D87">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A88" s="6">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88">
+        <v>83</v>
+      </c>
+      <c r="D88">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A89" s="6">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89">
+        <v>83</v>
+      </c>
+      <c r="D89">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A90" s="6">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90">
+        <v>83</v>
+      </c>
+      <c r="D90">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A91" s="6">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91">
+        <v>83</v>
+      </c>
+      <c r="D91">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A92" s="6">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92">
+        <v>83</v>
+      </c>
+      <c r="D92">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A93" s="6">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93">
+        <v>83</v>
+      </c>
+      <c r="D93">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A94" s="6">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94">
+        <v>83</v>
+      </c>
+      <c r="D94">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A95" s="6">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95">
+        <v>83</v>
+      </c>
+      <c r="D95">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A96" s="6">
+        <v>94</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96">
+        <v>83</v>
+      </c>
+      <c r="D96">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A97" s="6">
+        <v>95</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97">
+        <v>83</v>
+      </c>
+      <c r="D97">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A98" s="6">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98">
+        <v>83</v>
+      </c>
+      <c r="D98">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A99" s="6">
+        <v>97</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99">
+        <v>83</v>
+      </c>
+      <c r="D99">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A100" s="6">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100">
+        <v>83</v>
+      </c>
+      <c r="D100">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A101" s="6">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101">
+        <v>83</v>
+      </c>
+      <c r="D101">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
